--- a/xforms/xlsforms/out_migration_registration.xlsx
+++ b/xforms/xlsforms/out_migration_registration.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="25605" yWindow="-135" windowWidth="20730" windowHeight="11700" tabRatio="500"/>
@@ -11,12 +11,12 @@
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="178">
   <si>
     <t>type</t>
   </si>
@@ -159,9 +159,6 @@
     <t>Reason for Out Migration(Other)</t>
   </si>
   <si>
-    <t>MARITAL_CHANGE</t>
-  </si>
-  <si>
     <t>EDUCATION/SCHOOL</t>
   </si>
   <si>
@@ -255,30 +252,18 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>out_migration_registration</t>
   </si>
   <si>
-    <t>Out migration registration</t>
-  </si>
-  <si>
     <t>Date of migration can not be in the future or before the start of the study</t>
   </si>
   <si>
     <t>FISHING</t>
   </si>
   <si>
-    <t>GONEWITHRELATIVES</t>
-  </si>
-  <si>
     <t>GONE WITH RELATIVE(S)</t>
   </si>
   <si>
-    <t>MOVEDTONEWHOUSE</t>
-  </si>
-  <si>
     <t>MOVED TO NEW HOUSE</t>
   </si>
   <si>
@@ -318,93 +303,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>select_one yes_no</t>
-  </si>
-  <si>
-    <t>Place Moved To Within Rusinga Island?</t>
-  </si>
-  <si>
-    <t>withinRusinga</t>
-  </si>
-  <si>
-    <t>select_one whereoutside</t>
-  </si>
-  <si>
-    <t>outofrusinga</t>
-  </si>
-  <si>
-    <t>Where?</t>
-  </si>
-  <si>
-    <t>../withinRusinga='2'</t>
-  </si>
-  <si>
-    <t>SubaDistrict</t>
-  </si>
-  <si>
-    <t>Suba district</t>
-  </si>
-  <si>
-    <t>ElsewhereNyanzaProvince</t>
-  </si>
-  <si>
-    <t>Elsewhere Nyanza province</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Elsewhere in Kenya</t>
-  </si>
-  <si>
-    <t>Elsewhere_in_Kenya</t>
-  </si>
-  <si>
-    <t>vilagezone</t>
-  </si>
-  <si>
-    <t>../withinRusinga='1'</t>
-  </si>
-  <si>
-    <t>whereoutside</t>
-  </si>
-  <si>
-    <t>if(../withinRusinga='1',${vilagezone},${outofrusinga})</t>
-  </si>
-  <si>
-    <t>select_one zone</t>
-  </si>
-  <si>
-    <t>what zone?</t>
-  </si>
-  <si>
-    <t>zone</t>
-  </si>
-  <si>
-    <t>KAULI</t>
-  </si>
-  <si>
-    <t>TOWN</t>
-  </si>
-  <si>
-    <t>WAKAWA</t>
-  </si>
-  <si>
-    <t>WANYAMA</t>
-  </si>
-  <si>
-    <t>KASWANGA</t>
-  </si>
-  <si>
-    <t>KIKO</t>
-  </si>
-  <si>
-    <t>KAWAWASI</t>
-  </si>
-  <si>
-    <t>KAKNAGA-UFIRA</t>
-  </si>
-  <si>
     <t>integer</t>
   </si>
   <si>
@@ -415,13 +313,250 @@
   </si>
   <si>
     <t>(.&lt;=today() and . &gt;date(date('2012-06-01')))</t>
+  </si>
+  <si>
+    <t>Id da Visita</t>
+  </si>
+  <si>
+    <t>Código do Inquiridor</t>
+  </si>
+  <si>
+    <t>ExtId do Individuo</t>
+  </si>
+  <si>
+    <t>Data da migração</t>
+  </si>
+  <si>
+    <t>Razão da Emigração</t>
+  </si>
+  <si>
+    <t>Nome do Destino/Bairro</t>
+  </si>
+  <si>
+    <t>label::Portuguese</t>
+  </si>
+  <si>
+    <t>Mudança do estado civil?</t>
+  </si>
+  <si>
+    <t>Introduza a razão da emigração</t>
+  </si>
+  <si>
+    <t>O individuo em questão permaceu aqui por longo periodo ou curto periodo?</t>
+  </si>
+  <si>
+    <t>isMozambique</t>
+  </si>
+  <si>
+    <t>countryName</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>adminPost</t>
+  </si>
+  <si>
+    <t>locality</t>
+  </si>
+  <si>
+    <t>timeAbsence</t>
+  </si>
+  <si>
+    <t>select_one time_absence</t>
+  </si>
+  <si>
+    <t>Pais de destino</t>
+  </si>
+  <si>
+    <t>select_one countries</t>
+  </si>
+  <si>
+    <t>Nome do Pais</t>
+  </si>
+  <si>
+    <t>Provincia</t>
+  </si>
+  <si>
+    <t>Distrito</t>
+  </si>
+  <si>
+    <t>Posto Administrativo</t>
+  </si>
+  <si>
+    <t>Localidade</t>
+  </si>
+  <si>
+    <t>Previsão de tempo de ausência</t>
+  </si>
+  <si>
+    <t>countries</t>
+  </si>
+  <si>
+    <t>MOZ</t>
+  </si>
+  <si>
+    <t>Moçambique</t>
+  </si>
+  <si>
+    <t>Outro país</t>
+  </si>
+  <si>
+    <t>Sim</t>
+  </si>
+  <si>
+    <t>Não</t>
+  </si>
+  <si>
+    <t>Não sabe</t>
+  </si>
+  <si>
+    <t>Longo periodo</t>
+  </si>
+  <si>
+    <t>Curto periodo (até 1 ano)</t>
+  </si>
+  <si>
+    <t>Nenhuma das opções</t>
+  </si>
+  <si>
+    <t>Reconciliação</t>
+  </si>
+  <si>
+    <t>Casamento</t>
+  </si>
+  <si>
+    <t>Divórcio</t>
+  </si>
+  <si>
+    <t>Separação</t>
+  </si>
+  <si>
+    <t>Tornou-se Viuvo/a</t>
+  </si>
+  <si>
+    <t>3 á 6 meses</t>
+  </si>
+  <si>
+    <t>6 á 12 meses</t>
+  </si>
+  <si>
+    <t>Mais de 12 meses</t>
+  </si>
+  <si>
+    <t>Mudança definitiva</t>
+  </si>
+  <si>
+    <t>${isMozambique} = 'MOZ'</t>
+  </si>
+  <si>
+    <t>${isMozambique} = 'OTHER'</t>
+  </si>
+  <si>
+    <t>Emprego</t>
+  </si>
+  <si>
+    <t>Divorcio</t>
+  </si>
+  <si>
+    <t>Saúde</t>
+  </si>
+  <si>
+    <t>Familia</t>
+  </si>
+  <si>
+    <t>Maioridade/Independência</t>
+  </si>
+  <si>
+    <t>Perca de parentes/responsaveis</t>
+  </si>
+  <si>
+    <t>Educação</t>
+  </si>
+  <si>
+    <t>Situação Economica</t>
+  </si>
+  <si>
+    <t>Custo de Aluguer da casa</t>
+  </si>
+  <si>
+    <t>Acompanhantes dos progenitores/responsaveis</t>
+  </si>
+  <si>
+    <t>Outro</t>
+  </si>
+  <si>
+    <t>EMPREGO</t>
+  </si>
+  <si>
+    <t>CASAMENTO</t>
+  </si>
+  <si>
+    <t>DIVORCIO</t>
+  </si>
+  <si>
+    <t>SEPARACAO</t>
+  </si>
+  <si>
+    <t>SAUDE</t>
+  </si>
+  <si>
+    <t>FAMILIA</t>
+  </si>
+  <si>
+    <t>MAIORIDADE_INDEPENDENCIA</t>
+  </si>
+  <si>
+    <t>PERCA_DE_PARENTES</t>
+  </si>
+  <si>
+    <t>EDUCACAO</t>
+  </si>
+  <si>
+    <t>SITUACAO_ECONOMICA</t>
+  </si>
+  <si>
+    <t>CUSTO_DE_ALUGUER_DA_CASA</t>
+  </si>
+  <si>
+    <t>ACOMPANHANTES_DOS_PROGENITORES</t>
+  </si>
+  <si>
+    <t>OUTRO</t>
+  </si>
+  <si>
+    <t>NAO_SABE</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>permId</t>
+  </si>
+  <si>
+    <t>Perm ID</t>
+  </si>
+  <si>
+    <t>concat("EmExterna_",${permId})</t>
+  </si>
+  <si>
+    <t>Registo de Emigração Externa</t>
+  </si>
+  <si>
+    <t>time_absence</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1569,33 +1704,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q87"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomRight" activeCell="L11" sqref="L11:L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="27.75" style="5" customWidth="1"/>
     <col min="2" max="2" width="23.75" style="5" customWidth="1"/>
-    <col min="3" max="3" width="26.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="25.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="18" style="5" customWidth="1"/>
-    <col min="6" max="6" width="21.5" style="5" customWidth="1"/>
-    <col min="7" max="7" width="40" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25" style="5" customWidth="1"/>
-    <col min="9" max="10" width="10.875" style="5"/>
-    <col min="11" max="11" width="19.125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="34.125" style="5" customWidth="1"/>
-    <col min="13" max="16384" width="10.875" style="5"/>
+    <col min="3" max="3" width="31" style="5" customWidth="1"/>
+    <col min="4" max="4" width="26.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="25.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="18" style="5" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="40" style="5" customWidth="1"/>
+    <col min="9" max="9" width="25" style="5" customWidth="1"/>
+    <col min="10" max="11" width="10.875" style="5"/>
+    <col min="12" max="12" width="37.125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="34.125" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="10.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1603,59 +1739,62 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18">
       <c r="A2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4"/>
+      <c r="C2" s="4"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1667,15 +1806,16 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1687,15 +1827,16 @@
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P3" s="4"/>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="4"/>
+      <c r="C4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1707,37 +1848,32 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="P4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" ht="15" customHeight="1">
+      <c r="A5" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>99</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="b">
+        <v>36</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="b">
+      <c r="N5" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:18" ht="15" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
@@ -1745,323 +1881,442 @@
         <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="4" t="b">
+      <c r="J6" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M6" s="4" t="b">
+      <c r="N6" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:18" ht="15" customHeight="1">
+      <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="I7" s="4" t="b">
+        <v>32</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M7" s="4" t="b">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>71</v>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8" spans="1:18" ht="15" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+    </row>
+    <row r="9" spans="1:18" ht="22.5" customHeight="1">
+      <c r="A9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="4" t="b">
+      <c r="H9" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I9" s="4" t="b">
+    <row r="10" spans="1:18">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:18" ht="32.25" customHeight="1">
+      <c r="A11" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="I10" s="4" t="b">
+      <c r="B11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L10" s="5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="I11" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="38.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:18" ht="15.75" customHeight="1">
       <c r="A12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I12" s="4" t="b">
+        <v>119</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="K12" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M12" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15.75" customHeight="1">
       <c r="A13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="J13" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="J14" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J15" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" customHeight="1">
+      <c r="A16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J16" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="15" customHeight="1">
+      <c r="A17" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="18" customHeight="1">
+      <c r="A18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C18" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="4" t="b">
+      <c r="J18" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="19" spans="1:14" ht="20.25" customHeight="1">
+      <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C19" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="4" t="b">
+      <c r="J19" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="M19" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="20.25" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I15" s="4" t="b">
+    <row r="21" spans="1:14" ht="24">
+      <c r="A21" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="L15" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I16" s="4" t="b">
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="N22" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="M17" s="5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+    <row r="23" spans="1:14">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="9"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="9"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="9"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="11"/>
+      <c r="H24" s="2"/>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" s="7"/>
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2069,8 +2324,9 @@
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2078,27 +2334,30 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H29" s="2"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="C31" s="11"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="E31" s="11"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2106,9 +2365,9 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
-      <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2116,9 +2375,9 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
-      <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2126,8 +2385,9 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2135,64 +2395,118 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
-      <c r="I35" s="3"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I40" s="3"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I48" s="3"/>
-    </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I56" s="3"/>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I57" s="3"/>
-    </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I58" s="3"/>
-    </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I59" s="3"/>
-    </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I60" s="3"/>
-    </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I77" s="3"/>
-    </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I78" s="3"/>
-    </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I79" s="3"/>
-    </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.2">
-      <c r="I80" s="3"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I81" s="3"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="3"/>
-      <c r="I82" s="3"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="3"/>
-      <c r="I83" s="3"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="3"/>
-      <c r="I84" s="3"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I85" s="3"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I87" s="3"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="J45" s="3"/>
+    </row>
+    <row r="53" spans="10:10">
+      <c r="J53" s="3"/>
+    </row>
+    <row r="61" spans="10:10">
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="10:10">
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="10:10">
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="10:10">
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="10:10">
+      <c r="J65" s="3"/>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="J83" s="3"/>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="J85" s="3"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="J86" s="3"/>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="3"/>
+      <c r="J87" s="3"/>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="3"/>
+      <c r="J88" s="3"/>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="3"/>
+      <c r="J89" s="3"/>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="J90" s="3"/>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="J92" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2201,23 +2515,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="33" style="5" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="5" customWidth="1"/>
-    <col min="3" max="3" width="32.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="19.75" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.875" style="5"/>
+    <col min="2" max="2" width="27.75" style="5" customWidth="1"/>
+    <col min="3" max="3" width="31.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="32.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="19.75" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>12</v>
       </c>
@@ -2225,622 +2540,806 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>84</v>
+        <v>158</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>86</v>
+        <v>160</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>87</v>
+        <v>138</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>48</v>
+        <v>161</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>53</v>
+        <v>149</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="12" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B16" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C17" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="E17" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C18" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E18" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C19" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="E19" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B20" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C20" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="E20" s="14" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="12" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="13">
+      <c r="B21" s="13">
         <v>888</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="14" t="s">
+      <c r="C21" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="14" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
+      <c r="E21" s="14" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="13">
+        <v>1</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="13">
+        <v>2</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="13">
+        <v>3</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="13">
+        <v>1</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B15" s="13">
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="13">
+        <v>2</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" s="13">
         <v>1</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="13">
+      <c r="C29" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" s="13">
         <v>2</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="13">
+      <c r="C30" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31" s="13">
         <v>3</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B18" s="13">
-        <v>1</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="13">
-        <v>2</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B20" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B30" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>128</v>
-      </c>
       <c r="C31" s="13" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" s="13">
+        <v>4</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="12"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C33" s="13"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C36" s="13"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-    </row>
-    <row r="38" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="12"/>
       <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="15"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="15"/>
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="14"/>
       <c r="D40" s="14"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="15"/>
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="14"/>
       <c r="D41" s="14"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="15"/>
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="14"/>
       <c r="D42" s="14"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="15"/>
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="12"/>
       <c r="B43" s="13"/>
       <c r="C43" s="14"/>
       <c r="D43" s="14"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="15"/>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="12"/>
       <c r="B44" s="13"/>
       <c r="C44" s="14"/>
       <c r="D44" s="14"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="15"/>
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" spans="1:5" s="15" customFormat="1">
       <c r="B45" s="13"/>
       <c r="C45" s="14"/>
       <c r="D45" s="14"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E45" s="14"/>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="15"/>
       <c r="B46" s="13"/>
       <c r="C46" s="14"/>
       <c r="D46" s="14"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="15"/>
       <c r="B47" s="13"/>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" s="15"/>
       <c r="B48" s="13"/>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="15"/>
       <c r="B49" s="13"/>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E49" s="14"/>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="15"/>
       <c r="B50" s="13"/>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E50" s="14"/>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="15"/>
       <c r="B51" s="13"/>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E51" s="14"/>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="15"/>
       <c r="B52" s="13"/>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E52" s="14"/>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="15"/>
       <c r="B53" s="13"/>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="15"/>
       <c r="B54" s="13"/>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E54" s="14"/>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="15"/>
       <c r="B55" s="13"/>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E55" s="14"/>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="15"/>
       <c r="B56" s="13"/>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E56" s="14"/>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="15"/>
       <c r="B57" s="13"/>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E57" s="14"/>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="15"/>
       <c r="B58" s="13"/>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="15"/>
       <c r="B59" s="13"/>
       <c r="C59" s="14"/>
       <c r="D59" s="14"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E59" s="14"/>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="15"/>
       <c r="B60" s="13"/>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E60" s="14"/>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="15"/>
       <c r="B61" s="13"/>
       <c r="C61" s="14"/>
       <c r="D61" s="14"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E61" s="14"/>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="15"/>
       <c r="B62" s="13"/>
       <c r="C62" s="14"/>
       <c r="D62" s="14"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E62" s="14"/>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="15"/>
       <c r="B63" s="13"/>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="15"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="15"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="15"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="15"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="15"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="15"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="15"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2849,35 +3348,47 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D1" sqref="D1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="27.625" customWidth="1"/>
+    <col min="2" max="2" width="23.875" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="42.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
         <v>76</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>77</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B2" t="s">
-        <v>80</v>
-      </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>171</v>
+      </c>
+      <c r="D2" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/xforms/xlsforms/out_migration_registration.xlsx
+++ b/xforms/xlsforms/out_migration_registration.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="182">
   <si>
     <t>type</t>
   </si>
@@ -330,9 +330,6 @@
     <t>Razão da Emigração</t>
   </si>
   <si>
-    <t>Nome do Destino/Bairro</t>
-  </si>
-  <si>
     <t>label::Portuguese</t>
   </si>
   <si>
@@ -345,66 +342,15 @@
     <t>O individuo em questão permaceu aqui por longo periodo ou curto periodo?</t>
   </si>
   <si>
-    <t>isMozambique</t>
-  </si>
-  <si>
-    <t>countryName</t>
-  </si>
-  <si>
-    <t>province</t>
-  </si>
-  <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>adminPost</t>
-  </si>
-  <si>
-    <t>locality</t>
-  </si>
-  <si>
     <t>timeAbsence</t>
   </si>
   <si>
     <t>select_one time_absence</t>
   </si>
   <si>
-    <t>Pais de destino</t>
-  </si>
-  <si>
-    <t>select_one countries</t>
-  </si>
-  <si>
-    <t>Nome do Pais</t>
-  </si>
-  <si>
-    <t>Provincia</t>
-  </si>
-  <si>
-    <t>Distrito</t>
-  </si>
-  <si>
-    <t>Posto Administrativo</t>
-  </si>
-  <si>
-    <t>Localidade</t>
-  </si>
-  <si>
     <t>Previsão de tempo de ausência</t>
   </si>
   <si>
-    <t>countries</t>
-  </si>
-  <si>
-    <t>MOZ</t>
-  </si>
-  <si>
-    <t>Moçambique</t>
-  </si>
-  <si>
-    <t>Outro país</t>
-  </si>
-  <si>
     <t>Sim</t>
   </si>
   <si>
@@ -450,12 +396,6 @@
     <t>Mudança definitiva</t>
   </si>
   <si>
-    <t>${isMozambique} = 'MOZ'</t>
-  </si>
-  <si>
-    <t>${isMozambique} = 'OTHER'</t>
-  </si>
-  <si>
     <t>Emprego</t>
   </si>
   <si>
@@ -550,6 +490,78 @@
   </si>
   <si>
     <t>time_absence</t>
+  </si>
+  <si>
+    <t>destinations</t>
+  </si>
+  <si>
+    <t>Cidade de Maputo</t>
+  </si>
+  <si>
+    <t>Gaza</t>
+  </si>
+  <si>
+    <t>Inhambane</t>
+  </si>
+  <si>
+    <t>Sofala</t>
+  </si>
+  <si>
+    <t>Manica</t>
+  </si>
+  <si>
+    <t>Tete</t>
+  </si>
+  <si>
+    <t>Zambezia</t>
+  </si>
+  <si>
+    <t>Nampula</t>
+  </si>
+  <si>
+    <t>Cabo Delgado</t>
+  </si>
+  <si>
+    <t>Niassa</t>
+  </si>
+  <si>
+    <t>Africa de Sul</t>
+  </si>
+  <si>
+    <t>Swazilandia</t>
+  </si>
+  <si>
+    <t>Outro país Africano</t>
+  </si>
+  <si>
+    <t>Europa</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Americas</t>
+  </si>
+  <si>
+    <t>Provincia de Maputo</t>
+  </si>
+  <si>
+    <t>select_one destinations</t>
+  </si>
+  <si>
+    <t>Nome do Destino</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>processedBySync</t>
+  </si>
+  <si>
+    <t>processed by dbsync</t>
   </si>
 </sst>
 </file>
@@ -1705,13 +1717,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R92"/>
+  <dimension ref="A1:R87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L11" sqref="L11:L13"/>
+      <selection pane="bottomRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12"/>
@@ -1739,7 +1751,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>18</v>
@@ -1933,16 +1945,16 @@
         <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1960,347 +1972,301 @@
       <c r="O8" s="4"/>
       <c r="P8" s="4"/>
     </row>
-    <row r="9" spans="1:18" ht="22.5" customHeight="1">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:18" ht="15" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+    </row>
+    <row r="10" spans="1:18" ht="22.5" customHeight="1">
+      <c r="A10" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I10" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="J9" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="J10" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="32.25" customHeight="1">
+    <row r="11" spans="1:18">
       <c r="A11" s="5" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>117</v>
+        <v>40</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="J11" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15.75" customHeight="1">
+    <row r="12" spans="1:18" ht="15" customHeight="1">
       <c r="A12" s="5" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>119</v>
-      </c>
       <c r="D12" s="5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="J12" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M12" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" ht="15.75" customHeight="1">
+    </row>
+    <row r="13" spans="1:18" ht="18" customHeight="1">
       <c r="A13" s="5" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="J13" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M13" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15.75" customHeight="1">
+    </row>
+    <row r="14" spans="1:18" ht="20.25" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>121</v>
+        <v>44</v>
       </c>
       <c r="J14" s="4" t="b">
         <v>1</v>
       </c>
       <c r="M14" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" ht="15.75" customHeight="1">
-      <c r="A15" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="20.25" customHeight="1">
+      <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="J15" s="4" t="b">
         <v>1</v>
       </c>
       <c r="M15" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" customHeight="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="24">
       <c r="A16" s="5" t="s">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="J16" s="4" t="b">
         <v>1</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1">
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="5" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="J17" s="4" t="b">
+        <v>97</v>
+      </c>
+      <c r="N17" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="18" customHeight="1">
+    <row r="18" spans="1:14">
       <c r="A18" s="5" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>28</v>
+        <v>180</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>103</v>
+        <v>181</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" s="4" t="b">
+        <v>97</v>
+      </c>
+      <c r="N18" s="5" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="J19" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="20.25" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="J20" s="4" t="b">
-        <v>1</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="24">
-      <c r="A21" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J21" s="4" t="b">
-        <v>1</v>
-      </c>
+    <row r="19" spans="1:14">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" s="7"/>
+      <c r="B21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="N22" s="5" t="b">
-        <v>1</v>
-      </c>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="9"/>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="9"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="9"/>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="9"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="2"/>
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="11"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="7"/>
+      <c r="A26" s="2"/>
       <c r="B26" s="2"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="2"/>
       <c r="E26" s="11"/>
       <c r="F26" s="2"/>
@@ -2310,6 +2276,7 @@
     <row r="27" spans="1:14">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2335,14 +2302,13 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
-      <c r="C30" s="11"/>
+      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="11"/>
+      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -2350,12 +2316,13 @@
     <row r="31" spans="1:14">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="C31" s="11"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="11"/>
+      <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
+      <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="2"/>
@@ -2366,6 +2333,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
+      <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2"/>
@@ -2376,6 +2344,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
+      <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2"/>
@@ -2396,117 +2365,64 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="J38" s="3"/>
+      <c r="J35" s="3"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
+      <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
       <c r="J40" s="3"/>
     </row>
-    <row r="44" spans="1:10">
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="J45" s="3"/>
-    </row>
-    <row r="53" spans="10:10">
-      <c r="J53" s="3"/>
-    </row>
-    <row r="61" spans="10:10">
-      <c r="J61" s="3"/>
-    </row>
-    <row r="62" spans="10:10">
-      <c r="J62" s="3"/>
-    </row>
-    <row r="63" spans="10:10">
-      <c r="J63" s="3"/>
-    </row>
-    <row r="64" spans="10:10">
-      <c r="J64" s="3"/>
-    </row>
-    <row r="65" spans="10:10">
-      <c r="J65" s="3"/>
+    <row r="48" spans="1:10">
+      <c r="J48" s="3"/>
+    </row>
+    <row r="56" spans="10:10">
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="10:10">
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="10:10">
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="10:10">
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="10:10">
+      <c r="J60" s="3"/>
+    </row>
+    <row r="77" spans="10:10">
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" spans="10:10">
+      <c r="J78" s="3"/>
+    </row>
+    <row r="79" spans="10:10">
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="10:10">
+      <c r="J80" s="3"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="J81" s="3"/>
     </row>
     <row r="82" spans="1:10">
+      <c r="A82" s="3"/>
       <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10">
+      <c r="A83" s="3"/>
       <c r="J83" s="3"/>
     </row>
     <row r="84" spans="1:10">
+      <c r="A84" s="3"/>
       <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10">
       <c r="J85" s="3"/>
     </row>
-    <row r="86" spans="1:10">
-      <c r="J86" s="3"/>
-    </row>
     <row r="87" spans="1:10">
-      <c r="A87" s="3"/>
       <c r="J87" s="3"/>
-    </row>
-    <row r="88" spans="1:10">
-      <c r="A88" s="3"/>
-      <c r="J88" s="3"/>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="A89" s="3"/>
-      <c r="J89" s="3"/>
-    </row>
-    <row r="90" spans="1:10">
-      <c r="J90" s="3"/>
-    </row>
-    <row r="92" spans="1:10">
-      <c r="J92" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2516,10 +2432,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:A32"/>
+    <sheetView topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12"/>
@@ -2540,7 +2456,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>18</v>
@@ -2554,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>80</v>
@@ -2571,10 +2487,10 @@
         <v>28</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D3" s="14" t="s">
         <v>81</v>
@@ -2588,10 +2504,10 @@
         <v>28</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="D4" s="14" t="s">
         <v>50</v>
@@ -2605,10 +2521,10 @@
         <v>28</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D5" s="14" t="s">
         <v>82</v>
@@ -2622,10 +2538,10 @@
         <v>28</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>51</v>
@@ -2639,10 +2555,10 @@
         <v>28</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="D7" s="14" t="s">
         <v>52</v>
@@ -2656,10 +2572,10 @@
         <v>28</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D8" s="14" t="s">
         <v>53</v>
@@ -2673,16 +2589,16 @@
         <v>28</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2690,16 +2606,16 @@
         <v>28</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2707,16 +2623,16 @@
         <v>28</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2724,16 +2640,16 @@
         <v>28</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2741,16 +2657,16 @@
         <v>28</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2758,16 +2674,16 @@
         <v>28</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2775,16 +2691,16 @@
         <v>28</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2795,7 +2711,7 @@
         <v>55</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>60</v>
@@ -2812,7 +2728,7 @@
         <v>56</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>61</v>
@@ -2829,7 +2745,7 @@
         <v>57</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>62</v>
@@ -2846,7 +2762,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>63</v>
@@ -2863,7 +2779,7 @@
         <v>59</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>64</v>
@@ -2880,7 +2796,7 @@
         <v>888</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>74</v>
@@ -2897,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="D22" s="14" t="s">
         <v>87</v>
@@ -2914,7 +2830,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
       <c r="D23" s="14" t="s">
         <v>88</v>
@@ -2931,7 +2847,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>89</v>
@@ -2948,7 +2864,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>93</v>
@@ -2965,7 +2881,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>92</v>
@@ -2976,223 +2892,394 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="E27" s="14" t="s">
-        <v>127</v>
+        <v>157</v>
+      </c>
+      <c r="B27" s="13">
+        <v>1</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>128</v>
+        <v>157</v>
+      </c>
+      <c r="B28" s="13">
+        <v>2</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="12" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B29" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="12" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="B30" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="12" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B31" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="12" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="B32" s="13">
+        <v>2</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="13">
+        <v>3</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" s="13">
         <v>4</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="12"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
+      <c r="C34" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
+      <c r="A35" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" s="13">
+        <v>5</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
+      <c r="A36" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B36" s="13">
+        <v>6</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
+      <c r="A37" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B37" s="13">
+        <v>7</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
+      <c r="A38" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" s="13">
+        <v>8</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="A39" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B39" s="13">
+        <v>9</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="12"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
+      <c r="A40" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B40" s="13">
+        <v>10</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="12"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
+      <c r="A41" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B41" s="13">
+        <v>11</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="14" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="12"/>
-      <c r="B42" s="13"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
+      <c r="A42" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" s="13">
+        <v>12</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E42" s="14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="15" customFormat="1">
+      <c r="A43" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B43" s="13">
+        <v>13</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="12"/>
-      <c r="B44" s="13"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-    </row>
-    <row r="45" spans="1:5" s="15" customFormat="1">
-      <c r="B45" s="13"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
+      <c r="A44" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B44" s="13">
+        <v>14</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B45" s="13">
+        <v>15</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="15"/>
-      <c r="B46" s="13"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
+      <c r="A46" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B46" s="13">
+        <v>16</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="15"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
+      <c r="A47" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" s="13">
+        <v>17</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="15"/>
-      <c r="B48" s="13"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
+      <c r="A48" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B48" s="13">
+        <v>18</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="15"/>
-      <c r="B49" s="13"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
+      <c r="A49" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" s="13">
+        <v>88</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="E49" s="14" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="15"/>
@@ -3326,20 +3413,6 @@
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
       <c r="E68" s="14"/>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="15"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="15"/>
-      <c r="B70" s="13"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3374,21 +3447,21 @@
         <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
         <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="D2" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
